--- a/synthetic_esf_visual/invoices/MUT_0003_NEG001.xlsx
+++ b/synthetic_esf_visual/invoices/MUT_0003_NEG001.xlsx
@@ -561,7 +561,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-10-18</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>951691569976</t>
+          <t>915699767363</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>736384200550</t>
+          <t>842005507000</t>
         </is>
       </c>
     </row>
